--- a/Projekt/Mitarbeiterzeiten/ZD/MA_ZD.xlsx
+++ b/Projekt/Mitarbeiterzeiten/ZD/MA_ZD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBXGitHub\HtmXRechnung\Iteration 2try2\Mitarbeiterzeiten\ZD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBXGitHub\HtmXRechnung\Projekt\Mitarbeiterzeiten\ZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE66FF4-038A-49E2-9214-F2A0FAEF7298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9C3AF9-5E9D-4CDD-A2B2-17ECEC7886F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30870" yWindow="930" windowWidth="26460" windowHeight="17505" tabRatio="373" firstSheet="1" activeTab="1" xr2:uid="{5A353484-0E68-4912-BD2B-362C94CA2B03}"/>
+    <workbookView xWindow="4260" yWindow="870" windowWidth="26460" windowHeight="17505" tabRatio="373" firstSheet="1" activeTab="1" xr2:uid="{5A353484-0E68-4912-BD2B-362C94CA2B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Makros" sheetId="29" state="veryHidden" r:id="rId1"/>

--- a/Projekt/Mitarbeiterzeiten/ZD/MA_ZD.xlsx
+++ b/Projekt/Mitarbeiterzeiten/ZD/MA_ZD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UBXGitHub\HtmXRechnung\Projekt\Mitarbeiterzeiten\ZD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9C3AF9-5E9D-4CDD-A2B2-17ECEC7886F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433D997E-185F-48C4-85A9-2F22B2ECA526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="870" windowWidth="26460" windowHeight="17505" tabRatio="373" firstSheet="1" activeTab="1" xr2:uid="{5A353484-0E68-4912-BD2B-362C94CA2B03}"/>
+    <workbookView xWindow="1560" yWindow="1305" windowWidth="32595" windowHeight="17505" tabRatio="373" firstSheet="1" activeTab="1" xr2:uid="{5A353484-0E68-4912-BD2B-362C94CA2B03}"/>
   </bookViews>
   <sheets>
     <sheet name="Makros" sheetId="29" state="veryHidden" r:id="rId1"/>
